--- a/mcmaster_excel/Low-Profile_Ultra-Wide_Truss_Head_Slotted_Screws.xlsx
+++ b/mcmaster_excel/Low-Profile_Ultra-Wide_Truss_Head_Slotted_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,96 +434,146 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Head Ht.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Specifications Met</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr"/>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+          <t>Lg.</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Threading</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>HeadDia.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Head Ht.</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>TensileStrength, psi</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Specifications Met</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Pkg.</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>1/4"</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.505"</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.078"</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>90015A245</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>$3.69</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>4-40</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -558,21 +608,29 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>90015A245</t>
+          <t>90015A248</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>$3.69</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>4-40</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -607,21 +665,29 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>90015A248</t>
+          <t>90015A251</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>4-40</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -656,21 +722,29 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>90015A251</t>
+          <t>90015A254</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>4-40</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -705,38 +779,86 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>90015A254</t>
+          <t>90015A277</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>6-32</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>3/8"</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0.505"</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.078"</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>90015A280</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>6-32</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -771,21 +893,29 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>90015A277</t>
+          <t>90015A283</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>6-32</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -820,21 +950,29 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>90015A280</t>
+          <t>90015A286</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>6-32</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -869,21 +1007,29 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>90015A283</t>
+          <t>90015A289</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>6-32</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -918,21 +1064,29 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>90015A286</t>
+          <t>90015A302</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>8-32</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -967,38 +1121,86 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>90015A289</t>
+          <t>90015A305</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>8-32</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0.505"</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.078"</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>90015A308</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>8-32</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1033,21 +1235,29 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>90015A302</t>
+          <t>90015A311</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>8-32</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1082,21 +1292,29 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>90015A305</t>
+          <t>90015A314</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>8-32</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1131,21 +1349,29 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>90015A308</t>
+          <t>90015A337</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>10-24</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1180,21 +1406,29 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>90015A311</t>
+          <t>90015A340</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>10-24</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1229,38 +1463,86 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>90015A314</t>
+          <t>90015A343</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>6.54</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>10-24</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>3/4"</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0.505"</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.078"</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>90015A346</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
           <t>10-24</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1295,21 +1577,29 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>90015A337</t>
+          <t>90015A349</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>10-24</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1344,21 +1634,29 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>90015A340</t>
+          <t>90015A365</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>10-32</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1393,21 +1691,29 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>90015A343</t>
+          <t>90015A368</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>10-32</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1442,21 +1748,29 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>90015A346</t>
+          <t>90015A371</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>10-32</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1491,38 +1805,86 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>90015A349</t>
+          <t>90015A374</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>6.54</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>10-32</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>1"</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0.505"</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.078"</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>90015A377</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
           <t>10-32</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1532,12 +1894,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.505"</t>
+          <t>0.755"</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.078"</t>
+          <t>0.110"</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1557,21 +1919,29 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>90015A365</t>
+          <t>90015A394</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1581,12 +1951,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.505"</t>
+          <t>0.755"</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.078"</t>
+          <t>0.110"</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1606,21 +1976,29 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>90015A368</t>
+          <t>90015A397</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1630,12 +2008,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.505"</t>
+          <t>0.755"</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.078"</t>
+          <t>0.110"</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1650,26 +2028,34 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>90015A371</t>
+          <t>90015A410</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1679,12 +2065,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.505"</t>
+          <t>0.755"</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.078"</t>
+          <t>0.110"</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1699,26 +2085,34 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>90015A374</t>
+          <t>90015A414</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+          <t>10.85</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1728,12 +2122,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.505"</t>
+          <t>0.755"</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.078"</t>
+          <t>0.110"</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1748,26 +2142,34 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>90015A377</t>
+          <t>90015A417</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>6.54</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+          <t>10.92</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1797,17 +2199,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>90015A394</t>
+          <t>90015A419</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>11.34</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1815,12 +2217,16 @@
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1850,17 +2256,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>90015A397</t>
+          <t>90015A423</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>14.49</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1868,12 +2274,16 @@
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>2 1/2"</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1898,7 +2308,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>ASME B18.6.3</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1908,12 +2318,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>90015A410</t>
+          <t>90015A209</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>7.93</t>
+          <t>10.63</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -1921,12 +2331,16 @@
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3"</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1951,7 +2365,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>ASME B18.6.3</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1961,12 +2375,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>90015A414</t>
+          <t>90015A212</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>10.85</t>
+          <t>13.96</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -1974,12 +2388,16 @@
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2009,311 +2427,29 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>90015A417</t>
+          <t>90015A471</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>10.92</t>
+          <t>8.71</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>1 1/2"</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>0.755"</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.110"</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>90015A419</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>11.34</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>2"</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>0.755"</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.110"</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>90015A423</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>14.49</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>2 1/2"</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>0.755"</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.110"</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>ASME B18.6.3</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>90015A209</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>10.63</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>3"</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>0.755"</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.110"</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>ASME B18.6.3</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>90015A212</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>13.96</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
           <t>5/16"-18</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>1"</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>0.755"</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.110"</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>90015A471</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>8.71</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
